--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\70017703\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468A6D5-9CAA-4BC9-A394-3699CCDFDE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7A56C-4D3C-4F6A-92AD-555D528BC990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="4140" windowWidth="7905" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="32">
   <si>
     <t>archivo</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\Engine Power Components\t52.pdf</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -183,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,20 +496,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,11 +536,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -554,12 +561,15 @@
       <c r="I2">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -580,12 +590,15 @@
       <c r="I3">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -606,12 +619,15 @@
       <c r="I4">
         <v>90.701999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -632,12 +648,15 @@
       <c r="I5">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -658,12 +677,15 @@
       <c r="I6">
         <v>83.784999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -684,12 +706,15 @@
       <c r="I7">
         <v>83.674000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -710,12 +735,15 @@
       <c r="I8">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -736,12 +764,15 @@
       <c r="I9">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -762,12 +793,15 @@
       <c r="I10">
         <v>91.055999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -788,12 +822,15 @@
       <c r="I11">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
@@ -814,12 +851,15 @@
       <c r="I12">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -840,12 +880,15 @@
       <c r="I13">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
@@ -866,12 +909,15 @@
       <c r="I14">
         <v>91.055999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
@@ -892,12 +938,15 @@
       <c r="I15">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
@@ -918,12 +967,15 @@
       <c r="I16">
         <v>83.784999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
@@ -944,12 +996,15 @@
       <c r="I17">
         <v>83.674000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
@@ -970,12 +1025,15 @@
       <c r="I18">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -996,12 +1054,15 @@
       <c r="I19">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
@@ -1022,12 +1083,15 @@
       <c r="I20">
         <v>91.055999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
@@ -1048,12 +1112,15 @@
       <c r="I21">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1074,12 +1141,15 @@
       <c r="I22">
         <v>83.784999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -1100,12 +1170,15 @@
       <c r="I23">
         <v>83.674000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
@@ -1126,12 +1199,15 @@
       <c r="I24">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -1152,12 +1228,15 @@
       <c r="I25">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
@@ -1178,12 +1257,15 @@
       <c r="I26">
         <v>91.055999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
@@ -1204,12 +1286,15 @@
       <c r="I27">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
@@ -1230,12 +1315,15 @@
       <c r="I28">
         <v>83.784999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
@@ -1256,12 +1344,15 @@
       <c r="I29">
         <v>83.674000000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -1282,12 +1373,15 @@
       <c r="I30">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -1308,12 +1402,15 @@
       <c r="I31">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
@@ -1334,12 +1431,15 @@
       <c r="I32">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
@@ -1360,12 +1460,15 @@
       <c r="I33">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
@@ -1386,12 +1489,15 @@
       <c r="I34">
         <v>91.055999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
@@ -1412,12 +1518,15 @@
       <c r="I35">
         <v>80.936000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
@@ -1438,12 +1547,15 @@
       <c r="I36">
         <v>83.784999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
@@ -1464,12 +1576,15 @@
       <c r="I37">
         <v>83.674000000000007</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
@@ -1490,12 +1605,15 @@
       <c r="I38">
         <v>85.724999999999994</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
@@ -1516,8 +1634,11 @@
       <c r="I39">
         <v>82.224000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <f>AVERAGEIF(I2:I39, "&lt;&gt;-100")</f>
         <v>84.539078947368424</v>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7A56C-4D3C-4F6A-92AD-555D528BC990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF5858-BF8B-4BE3-9B3A-E5A001B66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="4140" windowWidth="7905" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="10095" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,16 +551,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>85.724999999999994</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -579,16 +580,16 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>82.224000000000004</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -608,16 +609,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>90.701999999999998</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -637,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>80.936000000000007</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -666,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -675,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>83.784999999999997</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -695,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -704,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>83.674000000000007</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -724,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>85.724999999999994</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -753,16 +754,16 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>82.224000000000004</v>
+        <v>90.701999999999998</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -782,16 +783,16 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>91.055999999999997</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -811,16 +812,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I11">
-        <v>80.936000000000007</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -840,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>85.724999999999994</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -869,16 +870,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>82.224000000000004</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -898,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>91.055999999999997</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -927,16 +928,16 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>80.936000000000007</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
@@ -956,16 +957,16 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>83.784999999999997</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -985,16 +986,16 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>83.674000000000007</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -1014,16 +1015,16 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>85.724999999999994</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -1043,16 +1044,16 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>82.224000000000004</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -1072,16 +1073,16 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20">
-        <v>91.055999999999997</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -1101,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>80.936000000000007</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -1130,16 +1131,16 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I22">
-        <v>83.784999999999997</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -1159,16 +1160,16 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>83.674000000000007</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -1188,16 +1189,16 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>85.724999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -1217,16 +1218,16 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I25">
-        <v>82.224000000000004</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -1246,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>91.055999999999997</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -1275,16 +1276,16 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>80.936000000000007</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
@@ -1304,16 +1305,16 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28">
-        <v>83.784999999999997</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1333,16 +1334,16 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29">
-        <v>83.674000000000007</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -1362,16 +1363,16 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I30">
-        <v>85.724999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -1391,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I31">
-        <v>82.224000000000004</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
@@ -1420,16 +1421,16 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32">
-        <v>85.724999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -1449,16 +1450,16 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I33">
-        <v>82.224000000000004</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -1478,16 +1479,16 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34">
-        <v>91.055999999999997</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -1507,16 +1508,16 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35">
-        <v>80.936000000000007</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
@@ -1536,16 +1537,16 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36">
-        <v>83.784999999999997</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -1565,16 +1566,16 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37">
-        <v>83.674000000000007</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -1594,16 +1595,16 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I38">
-        <v>85.724999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -1623,16 +1624,16 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I39">
-        <v>82.224000000000004</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF5858-BF8B-4BE3-9B3A-E5A001B66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{57BF5858-BF8B-4BE3-9B3A-E5A001B66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B2FC9E-7B1D-453A-806E-9A185C2A1A76}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="10095" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="-1380" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -589,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>91.055999999999997</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -618,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>83.674000000000007</v>
+        <v>84.122</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>83.784999999999997</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="I8">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>90.701999999999998</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -792,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -821,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -850,7 +850,7 @@
         <v>28</v>
       </c>
       <c r="I12">
-        <v>83.674000000000007</v>
+        <v>84.122</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -879,7 +879,7 @@
         <v>28</v>
       </c>
       <c r="I13">
-        <v>83.784999999999997</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -908,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="I14">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="I15">
-        <v>91.055999999999997</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
@@ -966,7 +966,7 @@
         <v>26</v>
       </c>
       <c r="I16">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="I17">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="I18">
-        <v>83.674000000000007</v>
+        <v>84.122</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="I19">
-        <v>83.784999999999997</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -1082,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="I20">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="I21">
-        <v>91.055999999999997</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -1140,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="I22">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -1169,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="I23">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -1198,7 +1198,7 @@
         <v>26</v>
       </c>
       <c r="I24">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="I25">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -1256,7 +1256,7 @@
         <v>25</v>
       </c>
       <c r="I26">
-        <v>83.674000000000007</v>
+        <v>84.122</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -1285,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="I27">
-        <v>83.784999999999997</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="I28">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="I29">
-        <v>91.055999999999997</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -1372,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="I30">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -1401,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="I31">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
@@ -1430,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="I32">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -1459,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="I33">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -1488,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="I34">
-        <v>83.674000000000007</v>
+        <v>84.122</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -1517,7 +1517,7 @@
         <v>25</v>
       </c>
       <c r="I35">
-        <v>83.784999999999997</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
@@ -1546,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="I36">
-        <v>80.936000000000007</v>
+        <v>89.933999999999997</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -1575,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="I37">
-        <v>91.055999999999997</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -1604,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="I38">
-        <v>82.224000000000004</v>
+        <v>83.477999999999994</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -1633,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="I39">
-        <v>85.724999999999994</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -1642,7 +1642,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <f>AVERAGEIF(I2:I39, "&lt;&gt;-100")</f>
-        <v>84.539078947368424</v>
+        <v>86.948131578947383</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70017703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{57BF5858-BF8B-4BE3-9B3A-E5A001B66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B2FC9E-7B1D-453A-806E-9A185C2A1A76}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{57BF5858-BF8B-4BE3-9B3A-E5A001B66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA630A0-A4E4-4075-A900-9E09A53189BC}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-1380" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="20925" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,16 +551,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>89.933999999999997</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -580,16 +580,16 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>85.524000000000001</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -609,16 +609,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>83.477999999999994</v>
+        <v>90.701999999999998</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -638,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>89.578999999999994</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>84.122</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>89.242999999999995</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>89.933999999999997</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
@@ -754,16 +754,16 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>85.524000000000001</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -783,16 +783,16 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>83.477999999999994</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -812,16 +812,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>89.578999999999994</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
@@ -841,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>84.122</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -870,16 +870,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>89.242999999999995</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -899,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>89.933999999999997</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -928,16 +928,16 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>85.524000000000001</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
@@ -957,16 +957,16 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>83.477999999999994</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
@@ -986,16 +986,16 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>89.578999999999994</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -1015,16 +1015,16 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18">
-        <v>84.122</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -1044,16 +1044,16 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>89.242999999999995</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -1073,16 +1073,16 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I20">
-        <v>89.933999999999997</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>85.524000000000001</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -1131,16 +1131,16 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I22">
-        <v>83.477999999999994</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -1160,16 +1160,16 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>89.578999999999994</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -1189,16 +1189,16 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I24">
-        <v>83.477999999999994</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
@@ -1218,16 +1218,16 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I25">
-        <v>89.578999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -1247,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26">
-        <v>84.122</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
@@ -1276,16 +1276,16 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27">
-        <v>89.242999999999995</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
@@ -1305,16 +1305,16 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28">
-        <v>89.933999999999997</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1334,16 +1334,16 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>85.524000000000001</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -1363,16 +1363,16 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30">
-        <v>83.477999999999994</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J30" t="s">
         <v>31</v>
@@ -1392,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I31">
-        <v>89.578999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J31" t="s">
         <v>31</v>
@@ -1421,16 +1421,16 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I32">
-        <v>83.477999999999994</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -1450,16 +1450,16 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I33">
-        <v>89.578999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J33" t="s">
         <v>31</v>
@@ -1479,16 +1479,16 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34">
-        <v>84.122</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="J34" t="s">
         <v>31</v>
@@ -1508,16 +1508,16 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35">
-        <v>89.242999999999995</v>
+        <v>80.936000000000007</v>
       </c>
       <c r="J35" t="s">
         <v>31</v>
@@ -1537,16 +1537,16 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36">
-        <v>89.933999999999997</v>
+        <v>83.784999999999997</v>
       </c>
       <c r="J36" t="s">
         <v>31</v>
@@ -1566,16 +1566,16 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>85.524000000000001</v>
+        <v>83.674000000000007</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -1595,16 +1595,16 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38">
-        <v>83.477999999999994</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -1624,16 +1624,16 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I39">
-        <v>89.578999999999994</v>
+        <v>82.224000000000004</v>
       </c>
       <c r="J39" t="s">
         <v>31</v>
@@ -1642,7 +1642,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <f>AVERAGEIF(I2:I39, "&lt;&gt;-100")</f>
-        <v>86.948131578947383</v>
+        <v>84.539078947368424</v>
       </c>
     </row>
   </sheetData>
